--- a/Tables/tot_tut_reg.xlsx
+++ b/Tables/tot_tut_reg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D4F00E-52C5-4AD3-AD3A-5D797F78ED1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736C0268-EC2E-4711-8B90-14034B9B3124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C32B4DF2-AFC9-4294-BE0C-F782544F6860}"/>
+    <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" xr2:uid="{C32B4DF2-AFC9-4294-BE0C-F782544F6860}"/>
   </bookViews>
   <sheets>
     <sheet name="tot_tut_reg" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -189,6 +189,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -979,7 +982,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E471E2C1-A5E9-4754-845C-CD3F72BF75B0}">
-  <dimension ref="A2:L23"/>
+  <dimension ref="A2:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:L22"/>
@@ -1335,37 +1338,40 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1">
-        <f>ROUND([1]tot_tut_reg!B17,2)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <f>ROUND([1]tot_tut_reg!C17,2)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <f>ROUND([1]tot_tut_reg!D17,2)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <f>ROUND([1]tot_tut_reg!E17,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <f>ROUND([1]tot_tut_reg!F17,2)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <f>ROUND([1]tot_tut_reg!G17,2)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <f>ROUND([1]tot_tut_reg!H17,2)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <f>ROUND([1]tot_tut_reg!I17,2)</f>
-        <v>0</v>
+      <c r="B12" s="17">
+        <f>MOD(B27,10)</f>
+        <v>1.5E-6</v>
+      </c>
+      <c r="C12" s="17">
+        <f t="shared" ref="C12:L12" si="0">MOD(C27,10)</f>
+        <v>6.5E-8</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17">
+        <f t="shared" si="0"/>
+        <v>1.7999999999999999E-6</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000002E-7</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I12" s="17">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17">
+        <f t="shared" si="0"/>
+        <v>3.8000000000000003E-8</v>
+      </c>
+      <c r="L12" s="17">
+        <f t="shared" si="0"/>
+        <v>1.2E-8</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -1711,6 +1717,46 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B27" s="17" t="str">
+        <f>[1]tot_tut_reg!B17</f>
+        <v>0.0000015</v>
+      </c>
+      <c r="C27" s="17" t="str">
+        <f>[1]tot_tut_reg!C17</f>
+        <v>0.000000065</v>
+      </c>
+      <c r="E27" s="17" t="str">
+        <f>[1]tot_tut_reg!D17</f>
+        <v>0.0000018</v>
+      </c>
+      <c r="F27" s="17" t="str">
+        <f>[1]tot_tut_reg!E17</f>
+        <v>0.00000044</v>
+      </c>
+      <c r="H27" s="17" t="str">
+        <f>[1]tot_tut_reg!F17</f>
+        <v>0.0000020</v>
+      </c>
+      <c r="I27" s="17" t="str">
+        <f>[1]tot_tut_reg!G17</f>
+        <v>0.000000100</v>
+      </c>
+      <c r="K27" s="17" t="str">
+        <f>[1]tot_tut_reg!H17</f>
+        <v>0.000000038</v>
+      </c>
+      <c r="L27" s="17" t="str">
+        <f>[1]tot_tut_reg!I17</f>
+        <v>0.000000012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I29" s="17"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B31" s="17"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B2:C2"/>

--- a/Tables/tot_tut_reg.xlsx
+++ b/Tables/tot_tut_reg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736C0268-EC2E-4711-8B90-14034B9B3124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C06E96-2B0C-400D-968A-FE231E09BAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" xr2:uid="{C32B4DF2-AFC9-4294-BE0C-F782544F6860}"/>
   </bookViews>
@@ -185,13 +185,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -250,10 +250,10 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>32.5***</v>
+            <v>32.8***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>39.7***</v>
+            <v>40.0***</v>
           </cell>
           <cell r="D5" t="str">
             <v>0.11***</v>
@@ -265,7 +265,7 @@
             <v>0.061***</v>
           </cell>
           <cell r="G5" t="str">
-            <v>0.074***</v>
+            <v>0.075***</v>
           </cell>
           <cell r="H5" t="str">
             <v>0.11***</v>
@@ -279,10 +279,10 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(6.80)</v>
+            <v>(6.81)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(6.41)</v>
+            <v>(6.40)</v>
           </cell>
           <cell r="D6" t="str">
             <v>(0.023)</v>
@@ -305,10 +305,10 @@
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-7.50</v>
+            <v>-7.51</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-1.52</v>
+            <v>-1.53</v>
           </cell>
           <cell r="D8" t="str">
             <v>-0.0062</v>
@@ -334,10 +334,10 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(8.21)</v>
+            <v>(8.20)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(6.43)</v>
+            <v>(6.42)</v>
           </cell>
           <cell r="D9" t="str">
             <v>(0.021)</v>
@@ -398,7 +398,7 @@
             <v>0.022</v>
           </cell>
           <cell r="F12" t="str">
-            <v>0.013</v>
+            <v>0.014</v>
           </cell>
           <cell r="G12" t="str">
             <v>0.038</v>
@@ -415,7 +415,7 @@
             <v>Control Mean</v>
           </cell>
           <cell r="B13" t="str">
-            <v>-248.7</v>
+            <v>-249.0</v>
           </cell>
           <cell r="D13" t="str">
             <v>0.44</v>
@@ -432,10 +432,10 @@
             <v>ToT</v>
           </cell>
           <cell r="B14" t="str">
-            <v>-74.5</v>
+            <v>-74.6</v>
           </cell>
           <cell r="C14" t="str">
-            <v>-15.1</v>
+            <v>-15.2</v>
           </cell>
           <cell r="D14" t="str">
             <v>-0.061</v>
@@ -487,10 +487,10 @@
             <v>TuT</v>
           </cell>
           <cell r="B16" t="str">
-            <v>44.5</v>
+            <v>44.8</v>
           </cell>
           <cell r="C16" t="str">
-            <v>45.9</v>
+            <v>46.2</v>
           </cell>
           <cell r="D16" t="str">
             <v>0.12</v>
@@ -499,7 +499,7 @@
             <v>0.13</v>
           </cell>
           <cell r="F16" t="str">
-            <v>0.084</v>
+            <v>0.085</v>
           </cell>
           <cell r="G16" t="str">
             <v>0.087</v>
@@ -513,10 +513,10 @@
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>0.0000015</v>
+            <v>0.0000012</v>
           </cell>
           <cell r="C17" t="str">
-            <v>0.000000065</v>
+            <v>0.000000053</v>
           </cell>
           <cell r="D17" t="str">
             <v>0.0000018</v>
@@ -525,10 +525,10 @@
             <v>0.00000044</v>
           </cell>
           <cell r="F17" t="str">
-            <v>0.0000020</v>
+            <v>0.0000016</v>
           </cell>
           <cell r="G17" t="str">
-            <v>0.000000100</v>
+            <v>0.000000081</v>
           </cell>
           <cell r="H17" t="str">
             <v>0.000000038</v>
@@ -542,10 +542,10 @@
             <v>ToT-TuT</v>
           </cell>
           <cell r="B18" t="str">
-            <v>-119.0</v>
+            <v>-119.4</v>
           </cell>
           <cell r="C18" t="str">
-            <v>-60.9</v>
+            <v>-61.4</v>
           </cell>
           <cell r="D18" t="str">
             <v>-0.19</v>
@@ -568,7 +568,7 @@
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>0.088</v>
+            <v>0.087</v>
           </cell>
           <cell r="C19" t="str">
             <v>0.19</v>
@@ -580,10 +580,10 @@
             <v>0.30</v>
           </cell>
           <cell r="F19" t="str">
-            <v>0.082</v>
+            <v>0.081</v>
           </cell>
           <cell r="G19" t="str">
-            <v>0.18</v>
+            <v>0.17</v>
           </cell>
           <cell r="H19" t="str">
             <v>0.12</v>
@@ -597,28 +597,28 @@
             <v>Bootstrap (normal) p-val</v>
           </cell>
           <cell r="B20" t="str">
-            <v>0.100</v>
+            <v>0.095</v>
           </cell>
           <cell r="C20" t="str">
-            <v>0.24</v>
+            <v>0.22</v>
           </cell>
           <cell r="D20" t="str">
-            <v>0.20</v>
+            <v>0.19</v>
           </cell>
           <cell r="E20" t="str">
-            <v>0.32</v>
+            <v>0.31</v>
           </cell>
           <cell r="F20" t="str">
             <v>0.091</v>
           </cell>
           <cell r="G20" t="str">
-            <v>0.22</v>
+            <v>0.21</v>
           </cell>
           <cell r="H20" t="str">
             <v>0.12</v>
           </cell>
           <cell r="I20" t="str">
-            <v>0.38</v>
+            <v>0.37</v>
           </cell>
         </row>
         <row r="21">
@@ -626,28 +626,28 @@
             <v>Bootstrap (percentile) p-val</v>
           </cell>
           <cell r="B21" t="str">
-            <v>0.089</v>
+            <v>0.076</v>
           </cell>
           <cell r="C21" t="str">
-            <v>0.24</v>
+            <v>0.22</v>
           </cell>
           <cell r="D21" t="str">
-            <v>0.19</v>
+            <v>0.18</v>
           </cell>
           <cell r="E21" t="str">
-            <v>0.33</v>
+            <v>0.32</v>
           </cell>
           <cell r="F21" t="str">
-            <v>0.079</v>
+            <v>0.072</v>
           </cell>
           <cell r="G21" t="str">
-            <v>0.21</v>
+            <v>0.22</v>
           </cell>
           <cell r="H21" t="str">
-            <v>0.12</v>
+            <v>0.11</v>
           </cell>
           <cell r="I21" t="str">
-            <v>0.38</v>
+            <v>0.36</v>
           </cell>
         </row>
         <row r="22">
@@ -658,25 +658,25 @@
             <v>0.11</v>
           </cell>
           <cell r="C22" t="str">
-            <v>0.24</v>
+            <v>0.23</v>
           </cell>
           <cell r="D22" t="str">
-            <v>0.24</v>
+            <v>0.23</v>
           </cell>
           <cell r="E22" t="str">
-            <v>0.35</v>
+            <v>0.34</v>
           </cell>
           <cell r="F22" t="str">
-            <v>0.11</v>
+            <v>0.10</v>
           </cell>
           <cell r="G22" t="str">
-            <v>0.24</v>
+            <v>0.22</v>
           </cell>
           <cell r="H22" t="str">
             <v>0.14</v>
           </cell>
           <cell r="I22" t="str">
-            <v>0.38</v>
+            <v>0.37</v>
           </cell>
         </row>
       </sheetData>
@@ -985,7 +985,7 @@
   <dimension ref="A2:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L22"/>
+      <selection activeCell="L22" sqref="A2:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1004,25 +1004,25 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="16"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="15"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="str">
@@ -1071,11 +1071,11 @@
       </c>
       <c r="B4" s="1" t="str">
         <f>[1]tot_tut_reg!B5</f>
-        <v>32.5***</v>
+        <v>32.8***</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>[1]tot_tut_reg!C5</f>
-        <v>39.7***</v>
+        <v>40.0***</v>
       </c>
       <c r="E4" s="1" t="str">
         <f>[1]tot_tut_reg!D5</f>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="I4" s="1" t="str">
         <f>[1]tot_tut_reg!G5</f>
-        <v>0.074***</v>
+        <v>0.075***</v>
       </c>
       <c r="K4" s="1" t="str">
         <f>[1]tot_tut_reg!H5</f>
@@ -1109,11 +1109,11 @@
       </c>
       <c r="B5" s="1" t="str">
         <f>[1]tot_tut_reg!B6</f>
-        <v>(6.80)</v>
+        <v>(6.81)</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]tot_tut_reg!C6</f>
-        <v>(6.41)</v>
+        <v>(6.40)</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>[1]tot_tut_reg!D6</f>
@@ -1146,11 +1146,11 @@
       </c>
       <c r="B6" s="1" t="str">
         <f>[1]tot_tut_reg!B8</f>
-        <v>-7.50</v>
+        <v>-7.51</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]tot_tut_reg!C8</f>
-        <v>-1.52</v>
+        <v>-1.53</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>[1]tot_tut_reg!D8</f>
@@ -1184,11 +1184,11 @@
       </c>
       <c r="B7" s="1" t="str">
         <f>[1]tot_tut_reg!B9</f>
-        <v>(8.21)</v>
+        <v>(8.20)</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]tot_tut_reg!C9</f>
-        <v>(6.43)</v>
+        <v>(6.42)</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>[1]tot_tut_reg!D9</f>
@@ -1222,11 +1222,11 @@
       </c>
       <c r="B9" s="13" t="str">
         <f>[1]tot_tut_reg!B14</f>
-        <v>-74.5</v>
+        <v>-74.6</v>
       </c>
       <c r="C9" s="13" t="str">
         <f>[1]tot_tut_reg!C14</f>
-        <v>-15.1</v>
+        <v>-15.2</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="str">
@@ -1300,11 +1300,11 @@
       </c>
       <c r="B11" s="11">
         <f>ROUND([1]tot_tut_reg!B16,2)</f>
-        <v>44.5</v>
+        <v>44.8</v>
       </c>
       <c r="C11" s="11">
         <f>ROUND([1]tot_tut_reg!C16,2)</f>
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
@@ -1318,7 +1318,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11">
         <f>ROUND([1]tot_tut_reg!F16,2)</f>
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I11" s="11">
         <f>ROUND([1]tot_tut_reg!G16,2)</f>
@@ -1338,38 +1338,38 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <f>MOD(B27,10)</f>
-        <v>1.5E-6</v>
-      </c>
-      <c r="C12" s="17">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C12" s="15">
         <f t="shared" ref="C12:L12" si="0">MOD(C27,10)</f>
-        <v>6.5E-8</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17">
+        <v>5.2999999999999998E-8</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15">
         <f t="shared" si="0"/>
         <v>1.7999999999999999E-6</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="15">
         <f t="shared" si="0"/>
         <v>4.4000000000000002E-7</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17">
+      <c r="G12" s="15"/>
+      <c r="H12" s="15">
         <f t="shared" si="0"/>
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="I12" s="17">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="I12" s="15">
         <f t="shared" si="0"/>
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17">
+        <v>8.0999999999999997E-8</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15">
         <f t="shared" si="0"/>
         <v>3.8000000000000003E-8</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="15">
         <f t="shared" si="0"/>
         <v>1.2E-8</v>
       </c>
@@ -1381,11 +1381,11 @@
       </c>
       <c r="B13" s="11" t="str">
         <f>[1]tot_tut_reg!B18</f>
-        <v>-119.0</v>
+        <v>-119.4</v>
       </c>
       <c r="C13" s="11" t="str">
         <f>[1]tot_tut_reg!C18</f>
-        <v>-60.9</v>
+        <v>-61.4</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="str">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B14" s="1" t="str">
         <f>[1]tot_tut_reg!B19</f>
-        <v>0.088</v>
+        <v>0.087</v>
       </c>
       <c r="C14" s="1" t="str">
         <f>[1]tot_tut_reg!C19</f>
@@ -1437,11 +1437,11 @@
       </c>
       <c r="H14" s="1" t="str">
         <f>[1]tot_tut_reg!F19</f>
-        <v>0.082</v>
+        <v>0.081</v>
       </c>
       <c r="I14" s="1" t="str">
         <f>[1]tot_tut_reg!G19</f>
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="K14" s="1" t="str">
         <f>[1]tot_tut_reg!H19</f>
@@ -1459,19 +1459,19 @@
       </c>
       <c r="B15" s="1" t="str">
         <f>[1]tot_tut_reg!B20</f>
-        <v>0.100</v>
+        <v>0.095</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>[1]tot_tut_reg!C20</f>
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>[1]tot_tut_reg!D20</f>
-        <v>0.20</v>
+        <v>0.19</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>[1]tot_tut_reg!E20</f>
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="H15" s="1" t="str">
         <f>[1]tot_tut_reg!F20</f>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I15" s="1" t="str">
         <f>[1]tot_tut_reg!G20</f>
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="K15" s="1" t="str">
         <f>[1]tot_tut_reg!H20</f>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="L15" s="1" t="str">
         <f>[1]tot_tut_reg!I20</f>
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -1497,35 +1497,35 @@
       </c>
       <c r="B16" s="1" t="str">
         <f>[1]tot_tut_reg!B21</f>
-        <v>0.089</v>
+        <v>0.076</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>[1]tot_tut_reg!C21</f>
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>[1]tot_tut_reg!D21</f>
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="F16" s="1" t="str">
         <f>[1]tot_tut_reg!E21</f>
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="H16" s="1" t="str">
         <f>[1]tot_tut_reg!F21</f>
-        <v>0.079</v>
+        <v>0.072</v>
       </c>
       <c r="I16" s="1" t="str">
         <f>[1]tot_tut_reg!G21</f>
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="K16" s="1" t="str">
         <f>[1]tot_tut_reg!H21</f>
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="L16" s="1" t="str">
         <f>[1]tot_tut_reg!I21</f>
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -1539,25 +1539,25 @@
       </c>
       <c r="C17" s="7" t="str">
         <f>[1]tot_tut_reg!C22</f>
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="str">
         <f>[1]tot_tut_reg!D22</f>
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="F17" s="7" t="str">
         <f>[1]tot_tut_reg!E22</f>
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="str">
         <f>[1]tot_tut_reg!F22</f>
-        <v>0.11</v>
+        <v>0.10</v>
       </c>
       <c r="I17" s="7" t="str">
         <f>[1]tot_tut_reg!G22</f>
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7" t="str">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="L17" s="7" t="str">
         <f>[1]tot_tut_reg!I22</f>
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -1647,7 +1647,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9" t="str">
         <f>[1]tot_tut_reg!F12</f>
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="I20" s="9" t="str">
         <f>[1]tot_tut_reg!G12</f>
@@ -1668,29 +1668,29 @@
         <f>[1]tot_tut_reg!A13</f>
         <v>Control Mean</v>
       </c>
-      <c r="B21" s="16" t="str">
+      <c r="B21" s="17" t="str">
         <f>[1]tot_tut_reg!B13</f>
-        <v>-248.7</v>
-      </c>
-      <c r="C21" s="16"/>
+        <v>-249.0</v>
+      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="16" t="str">
+      <c r="E21" s="17" t="str">
         <f>[1]tot_tut_reg!D13</f>
         <v>0.44</v>
       </c>
-      <c r="F21" s="16"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="16">
+      <c r="H21" s="17">
         <f>ABS([1]tot_tut_reg!F13)</f>
         <v>1.45</v>
       </c>
-      <c r="I21" s="16"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="16" t="str">
+      <c r="K21" s="17" t="str">
         <f>[1]tot_tut_reg!H13</f>
         <v>0.75</v>
       </c>
-      <c r="L21" s="16"/>
+      <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
@@ -1718,44 +1718,44 @@
     </row>
     <row r="23" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B27" s="17" t="str">
+      <c r="B27" s="15" t="str">
         <f>[1]tot_tut_reg!B17</f>
-        <v>0.0000015</v>
-      </c>
-      <c r="C27" s="17" t="str">
+        <v>0.0000012</v>
+      </c>
+      <c r="C27" s="15" t="str">
         <f>[1]tot_tut_reg!C17</f>
-        <v>0.000000065</v>
-      </c>
-      <c r="E27" s="17" t="str">
+        <v>0.000000053</v>
+      </c>
+      <c r="E27" s="15" t="str">
         <f>[1]tot_tut_reg!D17</f>
         <v>0.0000018</v>
       </c>
-      <c r="F27" s="17" t="str">
+      <c r="F27" s="15" t="str">
         <f>[1]tot_tut_reg!E17</f>
         <v>0.00000044</v>
       </c>
-      <c r="H27" s="17" t="str">
+      <c r="H27" s="15" t="str">
         <f>[1]tot_tut_reg!F17</f>
-        <v>0.0000020</v>
-      </c>
-      <c r="I27" s="17" t="str">
+        <v>0.0000016</v>
+      </c>
+      <c r="I27" s="15" t="str">
         <f>[1]tot_tut_reg!G17</f>
-        <v>0.000000100</v>
-      </c>
-      <c r="K27" s="17" t="str">
+        <v>0.000000081</v>
+      </c>
+      <c r="K27" s="15" t="str">
         <f>[1]tot_tut_reg!H17</f>
         <v>0.000000038</v>
       </c>
-      <c r="L27" s="17" t="str">
+      <c r="L27" s="15" t="str">
         <f>[1]tot_tut_reg!I17</f>
         <v>0.000000012</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="I29" s="17"/>
+      <c r="I29" s="15"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B31" s="17"/>
+      <c r="B31" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
